--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1234</v>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>46/503</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,17 +489,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>42399dac-8e1c-4952-a23b-64037f314ea5</t>
+          <t>50a5cc7f-d392-4c42-8426-dfe4782bc6db</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-03-09T09:51:26.372898</t>
+          <t>2025-03-26T07:06:22.407233</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:35.079491</t>
+          <t>2025-03-26T08:49:15.095763</t>
         </is>
       </c>
     </row>
@@ -511,13 +509,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1234</v>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>46/504</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -526,17 +522,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75e1ede4-085c-4568-84e7-977a367e2eb2</t>
+          <t>f1c05aff-3d1c-45e4-b780-506a3a46d208</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:39.774659</t>
+          <t>2025-03-26T07:07:42.505912</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:40.547417</t>
+          <t>2025-03-26T08:45:36.777054</t>
         </is>
       </c>
     </row>
@@ -546,13 +542,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1223</v>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>36/1387</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -561,17 +555,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54ae4c56-3eb1-4b31-aff5-6ccc937924cf</t>
+          <t>b405a152-5067-4909-bd3a-9f5106798869</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:42.537897</t>
+          <t>2025-03-26T07:12:09.010512</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:46.238025</t>
+          <t>2025-03-26T08:03:15.682625</t>
         </is>
       </c>
     </row>
@@ -581,13 +575,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1223</v>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>36/1388</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -596,17 +588,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81f9d198-de5b-4fa5-96fe-3433548ebbcc</t>
+          <t>fc0585b5-db18-487c-9e25-7e8d693c032c</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:43.834216</t>
+          <t>2025-03-26T07:27:48.085677</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:47.923740</t>
+          <t>2025-03-26T08:44:03.386825</t>
         </is>
       </c>
     </row>
@@ -616,13 +608,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1234</v>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>36/1389</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -631,17 +621,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bc337cf0-4520-420b-9544-f566d7f3b6a9</t>
+          <t>4e79426b-5eb2-4acc-aea4-3bd58760cdd2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:45.159284</t>
+          <t>2025-03-26T07:30:27.208464</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:47.248825</t>
+          <t>2025-03-26T08:57:20.053265</t>
         </is>
       </c>
     </row>
@@ -651,13 +641,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1233</v>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>46/505</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -666,17 +654,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3543e790-1f16-4bce-83da-c581c712529b</t>
+          <t>dfabe189-8d8f-4c82-bbbb-f0485de9d751</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:53.066098</t>
+          <t>2025-03-26T07:32:37.325947</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:53.933741</t>
+          <t>2025-03-26T08:55:53.277554</t>
         </is>
       </c>
     </row>
@@ -686,13 +674,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2445</v>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>46/506</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -701,17 +687,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11537e75-3c8a-409d-93b0-d828b2594235</t>
+          <t>0b518445-96c6-49c6-b85e-70629298e667</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:56.330218</t>
+          <t>2025-03-26T07:37:09.365232</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:02.990023</t>
+          <t>2025-03-26T08:59:23.144071</t>
         </is>
       </c>
     </row>
@@ -721,13 +707,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1234</v>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>46/507</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -736,17 +720,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>332f2c28-3871-4088-b92e-7a0004282795</t>
+          <t>fe617449-93e9-42e7-b550-6d12134ae618</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:58.335590</t>
+          <t>2025-03-26T07:38:37.315479</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:03.474341</t>
+          <t>2025-03-26T08:56:20.802234</t>
         </is>
       </c>
     </row>
@@ -756,34 +740,28 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1234</v>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>46/508หลังร้าน</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>preparing</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>35fce629-e913-4d0c-aa69-c67799bbe5ed</t>
+          <t>eafa2106-21e5-42ec-860e-ebcc637e1bf9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:59.851836</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-03-09T09:53:03.890076</t>
-        </is>
-      </c>
+          <t>2025-03-26T07:42:14.369024</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -791,13 +769,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1234</v>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>68/332 รอดึง LG729 KAZI</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -806,17 +782,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5eb5e7a5-251b-44ba-b092-fa1270d049e9</t>
+          <t>ebc293f9-e833-4638-a6e3-79ec6ac8e299</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:01.088165</t>
+          <t>2025-03-26T07:59:35.482860</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:05.725697</t>
+          <t>2025-03-26T08:40:06.397836</t>
         </is>
       </c>
     </row>
@@ -826,13 +802,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1234</v>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>26/657 งานจอง LG729 + LG731 อ้อ</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -841,17 +815,3141 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>033cf48e-50e1-4cbb-99ae-f28e74011d33</t>
+          <t>64406b7f-4b84-4189-89a9-6df50f9383be</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:02.178448</t>
+          <t>2025-03-26T08:00:05.536115</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:06.456214</t>
+          <t>2025-03-26T08:36:20.616836</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>56/488 งานจอง LG729 + LG727 ยอม</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5d0cd5c2-9bb4-4c76-b8b3-94ba266e2f4e</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:00:27.975419</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:28:40.015784</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>36/1391</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8936f7b9-fb20-4e5f-9ceb-091a5063c5a4</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:18:15.186232</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:46:09.936598</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>36/1390 รอดึง NO358 เสาร์คำทิพย์</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24176e86-42bd-4d78-8e1c-b94454377936</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:19:34.233120</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:52:15.013570</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>36/1392 รอดึง NO358 ZAR ZAR</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62b1b0b3-f120-468b-b6c6-c3d77bc8ae7b</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:19:55.869678</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:55:29.506266</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>36/1393 รอดึง NO358 ฮงลาว</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>362254e9-2648-4f84-a569-6d47542edd8a</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:20:15.300426</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-03-26T13:11:40.915000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>68/333 รอดึง NO358 + NO256 A&amp;J</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>a8172dfc-c169-43db-83bc-b33991fbdade</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:21:59.241369</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:58:40.769168</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>56/489 รอดึง NO219 ปุ๊ก สายใต้</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ed62eaec-7caf-49a4-b6cf-98609c8d7362</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:24:20.475875</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:55:44.487289</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>26/658 รอดึง NO219 สิวิไล</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4bc66f20-2db3-4a42-a2de-f0bc2547454e</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:24:46.226610</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-03-26T13:03:27.829823</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>56/490 รอดึง NO389 ดา</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0fb6a673-948f-4d4b-91ca-7e853e454747</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:32:14.984779</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-03-26T13:17:35.855585</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3448</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5f9744d2-12d6-4e1e-a2d8-c5ca73c5529a</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:32:28.523032</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>36/1395</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29ac6eb4-7c71-4546-bd21-576400459da5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:36:03.433731</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-03-26T09:13:24.884842</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>46/509 ขอด่วน รอจ่าย</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0a0407a5-0f82-41c3-88aa-1ae99bedc689</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:41:17.919943</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-03-26T09:34:12.584001</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>36/1396 งานจอง  PY8785 ZAR ZAR ตัวแพง</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27cdcada-a458-42bd-8a6e-b036b34c67b2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:54:25.509623</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-03-26T09:18:15.927071</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>36/1397 รอดึง PY8785 Malay Ei HTWE ตัวแพง</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2d7fc76e-e0e2-44e7-ae36-804f96cf03c8</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-03-26T08:55:02.293466</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-03-26T09:16:56.688164</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>26/659 รอดึง KW205 นวพร</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92bf88cf-a730-40f4-b197-e4a2e7cd0ee7</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-03-26T09:07:43.582648</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>26/661</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>a2a6ac48-7961-456f-8783-5f1f9563c959</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-03-26T09:18:25.893397</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:15:31.240725</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>36/1398</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7e2f33a3-fe37-4fb7-bece-562626ab41b5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-03-26T09:29:51.678874</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-03-26T09:49:29.423559</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>36/1399</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>dc708db8-0c9e-46cb-ab66-4dd8d6c0bcc4</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:01:30.981642</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>36/1400</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89317538-2a9a-42d8-b40f-83d70dcae060</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:01:35.751911</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>36/1041</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>a5e40de5-1bf7-4183-9f44-24c93c6dc22f</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:01:46.133085</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:20:41.308122</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>36/1402</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68b0c99c-f239-414b-81ce-db2d2db08c54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:02:02.123959</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:20:33.381374</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>26/663 งานจอง ML วารีชูส์</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7ba3e34f-7b25-4917-971d-ef25c6eca70a</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:12:48.586666</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:07:39.494279</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>26/664</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ed5c89d3-5d7e-4823-b6cc-a598b9900cfb</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:26:03.926968</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:14:33.233609</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>36/394</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7bc7a837-50cd-49cb-97fe-3b8d122370ca</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:26:40.085421</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:26:49.780638</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>36/1403</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>c90c10cf-af66-4442-b610-9671b4995207</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:41:56.683290</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:03:44.277525</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>36/1404</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7cb2bc98-2566-46a7-9d75-c795b7d67d57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:44:01.410614</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:07:52.669963</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>56/492 งานจอง SH1015 จูรัตน์</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>9bd28f29-81b3-4842-a8bf-c05d16e3e71e</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:47:17.825927</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:01:21.830943</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>26/665 งานจอง SH1019 อนันดา</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1e523e9e-d334-4bcf-b35d-fd36c11c4e21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-03-26T10:48:36.453607</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:01:14.123854</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>36/03319</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>b3fd1d3c-bd69-426e-b184-597ae9a4dfab</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:11:20.933403</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:28:42.521867</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>36/1406</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5d379e31-7135-4e8a-ad01-7b42a3ad016e</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:20:16.972767</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:37:11.563738</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>68/337</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2e3dcb9b-ef6e-4766-a990-d533890936e8</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:21:21.307999</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:21:29.572631</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>46/512</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>e0f68d16-64c3-4f9b-8249-96b3ea74407b</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:22:04.210228</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:22:07.388691</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>36/1407 งานจอง CY134 เสาร์คำทิพย์</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2125e1b8-a567-4a2c-931f-18657b4b1fb3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:24:31.134618</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:37:19.309742</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>36/1408 งานจอง CY144 ฮงลาว</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>169695d5-3953-4e11-8ad0-7566b4326b2c</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:24:54.372630</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:37:29.573014</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>36/1409 งานจอง CY155 ZAR ZAR</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>9b6a0a23-4d2a-40e1-b822-196a0ccf6744</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:26:06.572639</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:37:06.013614</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>36/319</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7153dadd-3631-4845-b458-a70552901fd6</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:28:32.681574</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:28:37.387419</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>46/513</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>a7d29360-4d67-417f-945b-017643573f73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:30:28.018256</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:01:21.464290</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>46/514</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>c2b277ca-1b3d-493e-95ab-2cd10019e701</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:47:24.722983</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:54:52.091932</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>46/515</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>5ea80e23-310e-4b9f-9714-dd3b1bc83efe</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:48:43.268518</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-03-26T13:11:03.563870</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>36/1411</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>cb1e5e2a-0f70-423f-bcde-032e55bfad98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:49:23.383948</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:15:04.669124</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>46/516</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30b6a011-1d5a-49d1-b6c9-a5d23b511899</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:49:32.258337</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:14:50.208504</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>36/1410</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>504e0204-5717-4fec-96a8-7fc0e98ec415</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:49:34.207648</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:24:00.152398</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>36/1412</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>8efa039a-5c6d-467c-b3bc-3ec879a799bf</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:57:40.193131</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:15:00.048273</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>36/1413</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>a666803b-77d5-4ca3-ab47-65abb46185dc</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-03-26T11:57:45.070973</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:24:04.078841</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>36/1415</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ff9fe611-9b2f-44ca-bddf-20926d91f7a1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:04:58.929294</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:25:56.563364</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>26/666</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>5bfa4306-fe3f-4190-bc40-9ed0400f5730</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:07:48.733882</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>68/338 ฺ BHO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2dd6f517-a95b-430d-a70f-962d30b62899</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:10:14.800242</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:13:52.961368</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>36/1405</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>832cd065-f0ca-4942-a988-1b74fa2ab110</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:14:31.617462</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:14:34.500519</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>26/667</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>829aa8a9-f6aa-48cb-ad0e-e6be302181f6</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:14:53.845503</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:58:44.980729</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>26/668</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>c2e53b8f-d5c6-4e66-b615-0362f746132c</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:15:23.058856</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:27:19.540491</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>36/1418</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24465ccf-a3b6-422e-9390-5b1c15f01eda</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:37:08.489071</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:01:08.698029</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>36/1420</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>4609b1cf-7ebc-42f3-b814-bc0c9fafd3ae</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:38:19.279419</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-03-26T13:10:50.036199</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>36/1421</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>9aa6f4cd-c934-4565-8ca2-033e90663cec</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:45:52.855513</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-03-26T13:17:26.399930</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>36/1422 งานพรี ทรัพย์รุ่งเรือง</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>e5b6d2c0-489b-4c54-8c15-a7a099567267</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:46:28.515769</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-03-26T13:20:50.356923</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>36/1416</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>43cb22d5-da20-475e-81b3-95a5df5de8ad</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:48:25.178909</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-03-26T12:50:44.245359</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>36/1423</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ee0ecb2e-1ea7-47d2-a5ab-0c5ed2758578</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:02:57.694033</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:11:38.829741</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>36/1424</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>e1a0fd68-afc7-4ee2-b3ec-e50eb5cfa392</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:08:26.587035</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:19:44.383877</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>36/1425</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0869f8cf-380b-4f0c-a95b-a4b7d66c8372</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:08:31.355632</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:15:49.974835</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>36/1426</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>c27c92da-f763-4be6-90ee-b4ad7a109c81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:11:00.624470</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:19:40.246697</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>36/1427</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>cada70c7-36a9-4d1c-9941-291efb45ec51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:12:14.614384</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:21:28.526339</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>36/1428</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>441e9255-f200-42f6-8c86-62ce83dc9595</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:13:20.118435</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:25:47.456086</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>36/1429</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>222639d3-0abd-440d-801f-711c8a27666f</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:21:47.726815</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:34:46.709284</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>46/519</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>6f4d01de-e919-4b26-98cb-d234c1b14c58</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:27:31.129811</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:34:52.441277</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>26/116</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>adb8a2aa-3bd5-4bbe-9eb0-93f1a4c8a405</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:28:03.226376</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>26/115</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>716a9d9c-bbec-4409-8a0d-c34b368e7412</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:28:23.916027</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>36/1430</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>dcebd5be-d076-494e-9147-76c46c005c15</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:31:20.394166</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:48:38.530531</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>36/1431</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3f1afb2a-b0f9-46dd-b2e6-1129e1abda4e</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:45:16.117441</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:27:34.426972</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>36/1432</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>8b12c981-99af-4229-8f40-099616ac7b5f</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:46:56.359979</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:27:28.271694</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>36/1432</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>c94cc884-af74-4e9b-b580-30c2deb773c4</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:47:36.393950</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:27:30.554395</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>36/1433</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>e99a6e13-4d38-48d1-a847-4f56cac29beb</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:49:07.354049</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>46/520</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>b432481e-3b8d-4b00-abc7-b2890546574b</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:49:32.323851</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:31:04.569109</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>26/669</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5cc837f4-0bcb-4d98-addb-9d21897780be</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-03-26T14:56:00.104233</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:45:49.779009</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>46/521</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>4ec123bd-9393-4297-9a1d-504783577f1c</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:04:56.029832</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:45:57.469339</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>26/670</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>532ff0d3-138a-47f5-ad0f-2071caefc0f0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:05:04.072348</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>26/671</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>d6bb875f-444d-42bf-948b-92b1a6b9edc8</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:07:21.890836</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:46:17.998445</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>46/522</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>e9eb475e-be08-4c0d-a223-8dfac6aaf533</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:10:23.939909</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:46:35.551363</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>26/672</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>41e78ee8-0570-4162-8fc7-e2d2134d29d3</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:11:30.053351</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:46:13.814938</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>46/523</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>6a798f5a-c900-4b11-9d68-dff232616575</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:14:11.242206</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:45:39.064334</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>46/524</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>e8876e3a-b1bf-489d-8945-6e9a728e3b9b</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:15:14.144055</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>36/1436</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0bab11cb-bab0-4d10-a259-cef879404ddd</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:15:32.295461</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:46:05.349507</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>36/1435</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>8277b27b-5777-44c3-ae53-a26d27c86811</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:16:37.533298</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:45:42.750465</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>36/1436</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>dec84d09-98df-4d79-a705-9a891b522cea</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:16:49.022168</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:46:21.491863</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>36/1437</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>e340f385-5d79-41cc-b858-6cdf47be3442</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:16:54.898781</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:45:34.338826</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>36/1438</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>11d2f44b-a808-495d-91dc-bb423fd51833</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:18:10.590715</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:45:25.240996</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>36/1439</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>ac2fd102-9d3b-429b-8c32-3d6a415b1b30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:19:22.450822</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:45:29.976772</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>26/673</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>56c7a354-ab0a-4389-9254-80f3707a9afa</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:45:53.217819</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:16:29.659714</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>26/675</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0d0cc2a7-35ce-4363-904d-3d063b19a9e6</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:55:58.026303</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:17:32.607970</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>46/525</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>f75e21ae-a2f5-4682-ab09-c730ddf4e9f8</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2025-03-26T15:59:36.027152</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:34:32.538252</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>68/340 งานจอง TA024 MOH mOH</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>659201fb-80d5-495d-bf89-6dbbd55ca798</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:03:21.848775</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:24:15.325705</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>36/1440 งานจอง TA020 Malay</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>5b816959-c1ba-4409-be93-20ef7efcc962</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:04:38.122183</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:49:49.355167</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>36/1441 งานจอง TA022 Malay</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>433ecde5-1149-4b87-bb9a-0c0afc9833e5</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:06:14.107976</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:49:50.637544</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>36/1442</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>fa420c24-6905-4d96-9087-e82cbba6dccb</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:16:41.359777</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2025-03-26T17:11:05.063296</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>26/674</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>6f18d93c-61cb-4bf7-9a50-8c6f3d8fd15d</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:18:01.928549</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:18:06.315632</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>36/1443</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>df055baa-c8b5-4800-846c-2aaa22221c6a</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:18:33.653456</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>68/40</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>7380ce6b-dadb-42c2-aca9-fc3fd8a9eab0</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:24:20.815325</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:24:27.010834</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>36/1444</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>6888b7d3-8e08-4276-b66a-71254fb94237</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025-03-26T16:38:49.075088</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2025-03-26T17:10:47.890582</t>
         </is>
       </c>
     </row>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +855,426 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>cdf24541-9127-458c-9cd5-b8a12f4b929c</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:53:26.610680</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:55:06.282262</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2345</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6d8fbad6-85c0-425a-a3dc-61f9817d2009</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:53:30.710633</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:53:32.391061</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6bfd6e1c-2f99-4993-94fb-c8f296212a53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:54:54.693445</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-03-11T14:08:24.249050</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2456</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27daef15-51da-4a46-a80d-325cc956802e</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:54:59.197709</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-03-11T14:08:24.386535</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31388b15-ac05-400d-a303-d5f639f45404</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:55:40.379223</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-03-12T11:03:48.781585</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3864c7a9-753a-467e-9e3d-d05048ff16d7</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:55:44.585014</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-03-12T11:03:45.695443</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5678</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>e2b508a8-f1a7-42e2-a070-a2f670779e15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:55:47.751952</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-03-11T14:09:28.875654</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1693ac31-331b-4156-90d9-98c1b862bfdc</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-03-11T13:59:02.371825</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-03-12T11:03:47.019402</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>c6559d3d-b592-4d32-b93a-d6f4ebaf2da4</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-03-12T08:09:09.694421</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-03-12T11:03:47.790109</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>cbf07666-709f-480c-ac5c-0b2b784cc3b9</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-03-12T08:09:13.875922</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-03-12T11:03:49.283978</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3456</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>fa885632-045e-48ce-bca3-39f8a6d56b28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-03-12T08:25:51.334453</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-03-12T09:42:06.423077</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9106c101-5720-4d4a-a8d0-337c6d325549</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-03-12T08:27:38.952059</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-03-12T08:27:40.743786</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,6 +3953,151 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>123455</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>742a38d0-ad43-4775-9dfa-82c79166aed4</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025-03-27T00:14:04.920184</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>13332</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>e58a822a-6af2-4d0d-846f-ce5f35108184</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025-03-27T00:30:56.450170</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>134321</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>c3d72030-ea6f-4d9c-9415-bd0ea6d1ff10</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025-03-27T00:31:09.841998</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Wewwew</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>3e1e3f36-2ccb-4d35-9a12-264336156518</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2025-03-27T00:31:12.174878</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>133456</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>eb72865d-ee49-449c-9d57-5d67c35cbaac</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:26:32.736176</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +748,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -761,7 +761,11 @@
           <t>2025-03-26T07:42:14.369024</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:54.705792</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1140,7 +1144,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1153,7 +1157,11 @@
           <t>2025-03-26T08:32:28.523032</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:30:00.566935</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1301,7 +1309,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1314,7 +1322,11 @@
           <t>2025-03-26T09:07:43.582648</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:55.602027</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1396,7 +1408,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1409,7 +1421,11 @@
           <t>2025-03-26T10:01:30.981642</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:30:02.476379</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1425,7 +1441,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1438,7 +1454,11 @@
           <t>2025-03-26T10:01:35.751911</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:57.135890</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2312,7 +2332,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2325,7 +2345,11 @@
           <t>2025-03-26T12:07:48.733882</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:30:03.331953</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2902,7 +2926,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2915,7 +2939,11 @@
           <t>2025-03-26T14:28:03.226376</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:51.652649</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2931,7 +2959,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2944,7 +2972,11 @@
           <t>2025-03-26T14:28:23.916027</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:50.860169</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3092,7 +3124,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3105,7 +3137,11 @@
           <t>2025-03-26T14:49:07.354049</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:50.092253</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3220,7 +3256,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3233,7 +3269,11 @@
           <t>2025-03-26T15:05:04.072348</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:49.180569</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3381,7 +3421,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3394,7 +3434,11 @@
           <t>2025-03-26T15:15:14.144055</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:46.962455</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3872,7 +3916,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>finished</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3885,7 +3929,11 @@
           <t>2025-03-26T16:18:33.653456</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:41.900549</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3952,6 +4000,3609 @@
           <t>2025-03-26T17:10:47.890582</t>
         </is>
       </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>36/1445</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>066d41f8-6718-429e-bb49-9c7dd2220be5</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:10:49.096169</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:16:28.569295</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>36/1445</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>5a56e8f1-19f4-4e20-bb89-ee0a6eb0e5f9</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:10:49.319348</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:29:43.664137</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>36/1446</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>28d27baa-d06a-4da0-ad29-92dcea57a02d</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:10:55.047874</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>36/1447</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>699e8905-3787-49ad-b88f-a67d8977097c</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:11:04.766611</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:09:34.101710</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>36/1448</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>456894b9-cef3-4c6a-a45f-9cbcdc7303f4</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:11:10.621450</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:15:52.206304</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>36/1449</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>626c6742-3465-418a-b7c3-63b4ae12e5f6</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:14:23.642875</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:09:33.437070</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>36/88</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>055d8641-b383-4716-9f06-1f6a187c7674</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:27:42.613011</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>36/1450</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>a0139c61-3b8c-4dec-a039-51a90fbebef4</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:31:59.704433</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:25:46.512245</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>26/677</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>d4bf48a6-1827-4022-84fb-69b63c44aa6c</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:33:37.466963</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:14:18.346279</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>26/678</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>25eb7ef4-bb5d-4562-88eb-f5dd00443a5b</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:33:43.639227</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:54:53.022576</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>26/679</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>b3099c89-b1a4-48d8-8ac7-f3f17cd95552</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:33:51.801375</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>26/679</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>33ebe911-cb25-4b85-a22a-9022eec3e52c</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025-03-27T07:48:24.331406</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:16:09.709626</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>56/495 รอดึง NO389 พี่ดา</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>a12673ab-4181-405c-83d2-315cc5ba7132</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:15:53.358927</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:31:43.653880</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>36/1451 รอดึง RG005 ZAR</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>7a3517e3-990b-48d1-ba53-b397307ae128</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:16:57.038231</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:39:49.937462</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>36/1452</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>8098586e-e26b-43dd-9614-a7474e9e7cb0</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:19:40.499553</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2025-03-27T08:28:13.735822</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>46/528</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>bf568a13-e667-42c7-8e0f-473da376376b</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:06:44.912713</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>46/529</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>64798170-a96c-4e8c-83fe-7f257ef8c7e9</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:07:44.785327</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:57:00.251377</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>36/680 รอดึง GN114 ทวีชัยศรี</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>9d01b794-4b52-4b73-be21-a79e8181c408</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:20:08.608628</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:35:49.277100</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>56/496 รอดึง GN114 ปุ๊ก สายใต้</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>f16cb09e-220b-4158-a424-d73ed6792284</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:21:01.025040</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:35:31.702641</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>46/530</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>b4db7252-7941-474d-b0be-92fe50dfc060</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:24:09.282136</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:42:17.854224</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>26/681</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>704e742a-706f-4ad9-8001-5103c5b7a0d1</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:24:21.816428</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:55:07.238779</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>46/531</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>9a3aa107-9fcd-491c-b18f-1254c010716d</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:44:41.910333</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:48:17.420072</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>26/682</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>6ceeb5d9-5a7e-4e65-b0ea-e892ee3e25ac</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:48:35.916524</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:54:43.498065</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>26/683</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>5238a309-cc3e-402a-9d26-eacc72edcc4b</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:51:00.070861</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:55:27.072944</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>36/1453</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>ba82c239-b572-4dbb-ad66-27f5b760551f</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:53:12.307307</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:18:11.949167</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>68/344 phoo</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>67d9459f-d4ad-4af2-b824-c536b63be97c</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:54:03.499609</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:20:22.813747</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>68/345 phoo</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>f3bbd4be-676e-4277-806c-1ba991409d2f</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:56:54.469544</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:12:56.975569</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>68/346 phoo ตัวแพง</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>3fa3acbc-e214-41d0-bfd4-4085be72d507</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2025-03-27T09:58:06.486588</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:55:31.374636</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>36/1454</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>83f0f90b-e045-4d3f-b9b8-a8927ce213fb</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:03:16.883306</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:19:46.917295</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>36/1454</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>f197cbd4-777d-46f7-a423-2ed2f83d9cb3</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:03:17.056459</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:19:50.069198</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>36/1455</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>68ee8010-de20-469c-bbab-e38bd68e2c51</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:04:54.243680</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:20:29.773258</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>56/497 งานจอง KW205 ณัฐฎ</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>8cd259a8-0335-49dc-99a4-dfaab13c5cb7</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:09:58.147884</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:35:43.113962</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>68/347 งานนจอง KW205 Hnin</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2d50f48e-bac8-4119-ad47-e066f2a5b789</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:11:20.084541</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:35:37.619000</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>36/1456 งานจอง KW205 อั้ม</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>3005b49c-1dd7-4bbe-ad0f-2bb94f96a7d8</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:12:24.346335</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:26:11.682970</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>26/684 รอดึง KW205 นวพร</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>8a89f189-9356-49fe-bf72-7e92830f1270</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:15:41.517549</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:25:22.866875</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>68/348 งานจอง WI505 สิรินทรา</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>43f9f04b-ea06-46a9-bc13-7c5767608c07</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:27:37.074038</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:49:49.955846</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>56/498 งานพรี CI014 ลีดเดอร์</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94bb196a-0f92-4649-956e-111e6f415d3e</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:30:13.450659</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:46:45.038766</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>36/456</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>b56a62d1-2941-454f-abc1-c807d5e85b20</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:33:10.328504</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:33:17.633854</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>26/686</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>8bec8370-142f-4470-b43c-9db894b2e3d5</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:47:11.571488</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:56:15.922181</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>36/1458</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>48aada24-48f8-4fc6-9e64-4f243958ec77</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2025-03-27T10:56:41.194203</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:11:41.663470</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>56/499 งานจอง VT40-1 EiEi</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>c030ab61-cdd7-4344-b4d8-b65e1b6043ce</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:02:39.473697</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:17:41.099498</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>46/533</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>b600c052-364a-433a-97b9-d9649efb3590</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:02:52.190819</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:11:33.880688</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>46/534</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1c4b693c-3926-4988-b91e-54113af7bf63</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:07:17.316598</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:49:31.110810</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>36/1459</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>639cb84d-7284-41ae-aa3b-53adec317360</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:07:24.570065</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:44:41.864099</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>36/1460</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>6462d476-19f7-46dd-bc17-17fc6891da19</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:08:52.479588</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:44:52.245107</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>46/536</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>7d1bca4a-f971-4701-bd1b-62db77a5d872</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:10:29.134326</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:44:36.264143</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>26/687</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>d2bc80aa-932d-4a51-a6c6-c0c03e2240ec</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:25:35.682826</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>26/687</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>b8bde9f2-3ae5-4dc0-9044-92b77e219dcd</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:29:10.392196</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:40:43.194901</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>26/689</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>3e02dec8-cc0d-46ec-b6a8-4483233cce6c</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:29:16.528382</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:40:38.305943</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>26/688</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>cdb9f466-fa24-4002-b008-75294d0654f2</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:31:23.990439</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:06:25.161515</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>36/1461</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>56087cc2-0bb5-4a66-adf4-201878aaff85</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:37:17.433554</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:52:55.546543</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>56/500 งานจอง RS81 TWELTAR</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>d79f8c8e-54e0-4b0d-82f0-fda9d54b5147</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:39:26.560894</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:43:45.048928</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>26/690</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>f5d9244a-59a8-4882-9cb6-a2aede9ba637</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:42:17.295580</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:53:19.001936</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>36/1462</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>a605fc2f-8058-4ebb-b869-6e072078b8a2</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:54:59.776181</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:07:41.145733</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>68/346 เจ้เล็ก sa</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>8e0c22d2-f603-44a8-b649-b4d87d7ece83</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:55:15.619846</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:14:50.661631</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>36/1463</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>f78978bb-a6cb-4adc-a182-e3dc235c29d4</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:58:23.101614</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:10:05.289606</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>68/349 phoo</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>eb3d0ba6-6169-4bbe-82d2-c4731485fc17</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:58:51.372879</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:29:42.541957</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>26/691</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>11dab948-406f-42ef-8835-b93b5893ae76</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:00:07.801405</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:09:57.345777</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>36/1464</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>c03ee1bb-dc46-4151-b2f6-5635fab09d83</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:01:39.713459</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:03:42.867204</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>36/1464</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>7e75a938-bd73-432d-91e0-eb2ef810988e</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:01:39.879478</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:52:04.802154</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>36/1465</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>4af01f41-2915-4ef5-a79e-bc2af57d5bf3</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:04:14.135420</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:17:13.824427</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>36/1465</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>99a19db4-bd3c-42af-8883-6fcdcfdb4da1</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:04:14.301895</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:17:12.114320</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>36/1466</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>980ed4d4-243a-45f1-b17d-085fc0cefa0d</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:06:30.884446</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:14:45.341763</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>36/1467 งานจอง RS84 ML/SOE</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>e129f833-ff06-4678-81d4-7fe65c2f2213</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:07:16.702784</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:29:37.033585</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>36/89</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>53d4b592-071e-43b8-bbc3-8c41259a48a1</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:16:07.691159</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>36/89</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>5bb5c2e8-644c-4171-8726-336b8e25b25c</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:16:07.907063</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>36/90</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>77e90c0c-1107-432a-8c0c-722402cbabb7</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:17:17.349740</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>36/90</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>8a1c7dec-aa08-476d-8554-2c8de8063a41</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:17:17.568741</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>36/91</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2149dc3a-f50e-48d4-99c8-99029e33484f</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:17:21.335691</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>36/91</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>b7003703-03b0-4316-8948-044d8da49880</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:17:21.563833</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:53:55.119345</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>46/539</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92db6f80-7674-4551-ab20-15514618bc72</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:30:03.668434</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:40:14.102304</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>46/540</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>5f40d57c-9150-4e05-a5e6-89e98965c4c1</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:44:47.891375</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:49:54.011992</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>56/501 อุ๊ (หน่อย)</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>05f3a1c7-93ca-485f-a366-81ce2b3b86ea</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:45:28.845673</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:54:26.152719</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>46/541</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0a333579-f04e-4db8-8f40-82d468869e6f</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:49:25.794590</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:05:24.876137</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>36/468</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>8d16dc78-d08b-4caa-98d6-3958fd3f6a51</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:51:54.854542</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2025-03-27T12:51:58.369366</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>26/692</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>7f504c3f-98f5-4658-b01f-86b8145ee761</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:12:46.276665</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:20:30.338870</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>26/639</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>65659d45-7ec4-4630-836d-83b3d0288e29</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:14:07.924390</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>26/694</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>32d4b7ae-de99-4fce-8b84-f72957fffd39</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:17:18.442619</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:33:20.915621</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>46/542</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>39f99f49-0f10-4071-9201-cf1af222bc26</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:21:45.139229</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:22:50.863327</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>26/695</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>295b0aaf-af60-4e66-b261-bc304a8a2752</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:23:54.001305</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:40:37.510535</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>36/92</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>6418cbfc-2421-43e7-8a74-9e1eaf4dd247</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:25:48.348529</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>36/1469</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>d275b2c1-6684-418e-a128-d155911d7a42</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:30:12.313183</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:33:15.076420</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>46/543</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>a6d49d04-c27d-4edc-ba86-3559c9103c0c</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:33:15.648495</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:37:34.119850</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>26/696</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>5389a190-783f-479a-9f09-e6bffab5397a</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:36:52.292293</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:04:35.233784</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>26/697</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>75e1a776-ef46-4cae-b8d7-139cc10d262f</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:38:57.974197</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:04:24.736092</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>26/698</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>47e5a177-2443-476b-8dc4-a23874c3edc1</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:41:54.003541</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:08:11.288566</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>26/699</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>6835828a-711f-4e1c-ae39-9ceea372c12a</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:43:08.822503</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:04:17.824299</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>26/700</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>b563102a-ca7b-45ff-9ddc-1b0fdc1a0c1a</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:44:22.662421</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:04:00.241826</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>26/701</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>d4ac2827-91da-4bbf-810b-7e44706dce6b</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:47:00.750522</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:08:03.761345</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>46/545</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>9f4e3ed2-c889-4b38-b468-8012b6b40a8e</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:54:15.675126</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:07:39.647646</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>26/702</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>82281c84-cf26-4308-a2d1-3096348de071</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2025-03-27T13:55:35.666471</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:03:42.530325</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>26/703</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>e8a1c2c8-8b1d-4e12-b493-83099f768027</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:12:38.255787</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:28:57.253398</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>36/1470</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>f5668e49-befb-4aca-81cf-e3b86a0a2dfe</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:14:44.755851</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:34:00.523642</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>36/1470</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>b176f213-32f7-4525-b015-ee9928c99776</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:14:45.036874</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:34:09.513098</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>36/1471</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>fee234ba-c309-4dfb-acdb-375ec8e09811</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:17:33.639951</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>36/1471</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>d2daa395-6eb3-4dde-8d72-2227f185b6c1</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:17:33.864779</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:43:50.612563</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>46/542</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>8484e49a-13bd-436e-a0b5-0342ab62d214</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:24:34.562709</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:56:49.088695</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>68/350 phoo</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>93c6ba67-eaf2-485a-89ac-e0bc1bc8abd8</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:58:28.088945</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:41:20.603194</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>68/351 phoo</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>d6ffd733-c81f-44c0-a18b-336efb5eaa80</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2025-03-27T14:58:45.264016</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:08:37.500102</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>26/704</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>de91f36a-ff42-45d3-95df-6eeb07ee93a0</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:04:58.294631</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:45:13.844453</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>26/705</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2f3d7255-7acd-4a60-affe-d90b043cab2f</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:06:41.090909</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:45:10.415653</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>26/706</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>36db323c-e8f1-4080-9575-f8e1f3f8a306</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:08:03.515219</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:45:16.647721</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>46/543</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>bf287fc3-69a4-4046-a827-ec6f11d3b9a1</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:09:47.415065</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:10:01.402174</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>36/472</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>11b4388f-f6d1-430f-bf46-05e88ff42102</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:09:52.717682</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:10:02.853103</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>68/352</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>248a74f5-1f91-4ac1-b85c-eb3ad1ef39d9</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:46:16.864972</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:46:22.851219</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>68/352</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>278b291d-6379-465d-8103-4ee9a58d01f0</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:46:17.059264</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:46:20.657159</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>46/547</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>510c8d6b-a019-4a3f-b0ea-09362e723cd6</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:53:08.108847</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2025-03-27T15:57:09.315634</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>26/707</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>32e5cb3f-a563-478e-bd86-34af50eca8cf</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2025-03-27T16:08:51.662927</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2025-03-27T16:27:46.042671</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>26/708</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>7863783a-ea91-43f5-b892-03778e2a83e5</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2025-03-27T16:15:46.781244</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2025-03-27T16:22:44.371848</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>36/125</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>dbd2839b-dd33-4aed-98a5-b15627bca970</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2025-03-27T16:50:53.233828</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>36/125</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>32e58412-876f-4643-92fc-eb5ce736b8d4</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2025-03-27T16:50:53.712302</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1234</v>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,17 +489,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>42399dac-8e1c-4952-a23b-64037f314ea5</t>
+          <t>5c9688e9-c4fe-4cbc-997e-d1039b4f8e04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-03-09T09:51:26.372898</t>
+          <t>2025-03-28T06:53:30.084318</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:35.079491</t>
+          <t>2025-03-28T06:53:34.368440</t>
         </is>
       </c>
     </row>
@@ -511,13 +509,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1234</v>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -526,33 +522,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75e1ede4-085c-4568-84e7-977a367e2eb2</t>
+          <t>81225557-4738-42c6-8cca-85210d35aef7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:39.774659</t>
+          <t>2025-03-28T06:53:31.436722</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:40.547417</t>
+          <t>2025-03-28T06:53:35.367913</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BK</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1223</v>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>36/93</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -561,54 +555,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54ae4c56-3eb1-4b31-aff5-6ccc937924cf</t>
+          <t>309842fe-733f-4153-a732-e6835b33a734</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:42.537897</t>
+          <t>2025-03-28T07:22:11.165795</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:46.238025</t>
+          <t>2025-03-28T07:29:26.846177</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BK</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1223</v>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>36/94</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>preparing</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81f9d198-de5b-4fa5-96fe-3433548ebbcc</t>
+          <t>0137386f-3bdf-43bc-b114-67e7f48e4a36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:43.834216</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-03-09T09:52:47.923740</t>
-        </is>
-      </c>
+          <t>2025-03-28T07:22:17.452845</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -616,13 +604,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1234</v>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>36/1474</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -631,17 +617,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bc337cf0-4520-420b-9544-f566d7f3b6a9</t>
+          <t>ad1489be-03dc-4d86-bdcb-85028210c684</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:45.159284</t>
+          <t>2025-03-28T07:22:58.721970</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:47.248825</t>
+          <t>2025-03-28T07:47:49.208159</t>
         </is>
       </c>
     </row>
@@ -651,13 +637,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1233</v>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>36/1475</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -666,17 +650,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3543e790-1f16-4bce-83da-c581c712529b</t>
+          <t>5e413b49-d661-4c6d-af29-39dffec95d57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:53.066098</t>
+          <t>2025-03-28T07:23:03.905069</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:53.933741</t>
+          <t>2025-03-28T07:53:40.550264</t>
         </is>
       </c>
     </row>
@@ -686,13 +670,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2445</v>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>36/1476</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -701,17 +683,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11537e75-3c8a-409d-93b0-d828b2594235</t>
+          <t>bb3be6c5-1207-4d5d-8b48-4e0d1fc7a3b9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:56.330218</t>
+          <t>2025-03-28T07:23:09.410931</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:02.990023</t>
+          <t>2025-03-28T07:47:35.031326</t>
         </is>
       </c>
     </row>
@@ -721,13 +703,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1234</v>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -736,17 +716,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>332f2c28-3871-4088-b92e-7a0004282795</t>
+          <t>4fa3b517-2037-4210-8611-d70b7eb96774</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:58.335590</t>
+          <t>2025-03-28T07:26:32.364323</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:03.474341</t>
+          <t>2025-03-28T07:26:36.925345</t>
         </is>
       </c>
     </row>
@@ -756,13 +736,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1234</v>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -771,17 +749,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>35fce629-e913-4d0c-aa69-c67799bbe5ed</t>
+          <t>2c9051ef-b34d-4828-afb9-0ca071d032a5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-03-09T09:52:59.851836</t>
+          <t>2025-03-28T07:26:48.882558</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:03.890076</t>
+          <t>2025-03-28T07:26:50.197999</t>
         </is>
       </c>
     </row>
@@ -791,13 +769,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1234</v>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>46/548</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -806,17 +782,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5eb5e7a5-251b-44ba-b092-fa1270d049e9</t>
+          <t>0831b1f4-d0c8-4a6f-92a2-0230dedd049c</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:01.088165</t>
+          <t>2025-03-28T07:30:18.336987</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:05.725697</t>
+          <t>2025-03-28T07:51:05.135467</t>
         </is>
       </c>
     </row>
@@ -826,13 +802,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1234</v>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>46/549</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -841,17 +815,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>033cf48e-50e1-4cbb-99ae-f28e74011d33</t>
+          <t>8515581e-e8c4-488f-9b36-2187e0e9c499</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:02.178448</t>
+          <t>2025-03-28T07:30:24.984733</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-03-09T09:53:06.456214</t>
+          <t>2025-03-28T07:42:56.725708</t>
         </is>
       </c>
     </row>
@@ -861,13 +835,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1234</v>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>45/550</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -876,17 +848,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cdf24541-9127-458c-9cd5-b8a12f4b929c</t>
+          <t>929177ae-67be-47cb-b333-50829a65c141</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-03-11T13:53:26.610680</t>
+          <t>2025-03-28T07:30:31.286478</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-03-11T13:55:06.282262</t>
+          <t>2025-03-28T07:53:35.286670</t>
         </is>
       </c>
     </row>
@@ -896,13 +868,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2345</v>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>45/551</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -911,17 +881,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6d8fbad6-85c0-425a-a3dc-61f9817d2009</t>
+          <t>6072206b-8d9f-4295-bf8b-837d79a5310f</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-03-11T13:53:30.710633</t>
+          <t>2025-03-28T07:30:36.283936</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-03-11T13:53:32.391061</t>
+          <t>2025-03-28T07:58:21.193760</t>
         </is>
       </c>
     </row>
@@ -931,13 +901,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1234</v>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>45/552</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -946,17 +914,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6bfd6e1c-2f99-4993-94fb-c8f296212a53</t>
+          <t>6bb92f0c-aba3-4267-a3df-4edea2ff96a5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-03-11T13:54:54.693445</t>
+          <t>2025-03-28T07:30:40.126148</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-03-11T14:08:24.249050</t>
+          <t>2025-03-28T07:43:02.522030</t>
         </is>
       </c>
     </row>
@@ -966,13 +934,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2456</v>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>45/553</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -981,17 +947,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27daef15-51da-4a46-a80d-325cc956802e</t>
+          <t>9a2d9e5a-2447-47c1-aee0-c5e748a57f82</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-03-11T13:54:59.197709</t>
+          <t>2025-03-28T07:30:43.542298</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-03-11T14:08:24.386535</t>
+          <t>2025-03-28T07:42:45.164711</t>
         </is>
       </c>
     </row>
@@ -1001,13 +967,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1234</v>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>45/554</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1016,17 +980,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>31388b15-ac05-400d-a303-d5f639f45404</t>
+          <t>053f13c8-e659-4433-a334-cfbc7049b105</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-03-11T13:55:40.379223</t>
+          <t>2025-03-28T07:30:48.385128</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-03-12T11:03:48.781585</t>
+          <t>2025-03-28T07:42:51.117477</t>
         </is>
       </c>
     </row>
@@ -1036,34 +1000,28 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1245</v>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>45/555</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>preparing</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3864c7a9-753a-467e-9e3d-d05048ff16d7</t>
+          <t>c630bfa5-b998-4903-b829-514f0d7a4ce7</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-03-11T13:55:44.585014</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-03-12T11:03:45.695443</t>
-        </is>
-      </c>
+          <t>2025-03-28T07:30:52.254175</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1071,13 +1029,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>5678</v>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>36/1477</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1086,17 +1042,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>e2b508a8-f1a7-42e2-a070-a2f670779e15</t>
+          <t>91cfc47e-3e79-4f1b-b56c-2d2158aba53d</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-03-11T13:55:47.751952</t>
+          <t>2025-03-28T07:44:09.126873</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-03-11T14:09:28.875654</t>
+          <t>2025-03-28T08:20:08.180427</t>
         </is>
       </c>
     </row>
@@ -1106,34 +1062,28 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1234</v>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>36/1478</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>preparing</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1693ac31-331b-4156-90d9-98c1b862bfdc</t>
+          <t>b8cdb29e-013e-411f-ad2c-ddd9ddc3302e</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-03-11T13:59:02.371825</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2025-03-12T11:03:47.019402</t>
-        </is>
-      </c>
+          <t>2025-03-28T07:44:16.079042</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1141,13 +1091,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1234</v>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>36/1479</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1156,17 +1104,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>c6559d3d-b592-4d32-b93a-d6f4ebaf2da4</t>
+          <t>135507a8-0222-4553-89d3-e8ba69038071</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-03-12T08:09:09.694421</t>
+          <t>2025-03-28T07:44:20.627252</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-03-12T11:03:47.790109</t>
+          <t>2025-03-28T08:10:38.156352</t>
         </is>
       </c>
     </row>
@@ -1176,13 +1124,11 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1233</v>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>46/555</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1191,17 +1137,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cbf07666-709f-480c-ac5c-0b2b784cc3b9</t>
+          <t>75c96caf-8cfc-41bc-80af-a6c170eba6fa</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-03-12T08:09:13.875922</t>
+          <t>2025-03-28T07:58:42.972794</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-03-12T11:03:49.283978</t>
+          <t>2025-03-28T08:04:19.166288</t>
         </is>
       </c>
     </row>
@@ -1211,34 +1157,28 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>3456</v>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>36/1482</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>preparing</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fa885632-045e-48ce-bca3-39f8a6d56b28</t>
+          <t>9928e9b4-55c3-4110-a559-96ef2b7aae92</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-03-12T08:25:51.334453</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-03-12T09:42:06.423077</t>
-        </is>
-      </c>
+          <t>2025-03-28T08:00:56.514683</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1246,34 +1186,119 @@
           <t>BK</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1234</v>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>36/1485</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>preparing</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9106c101-5720-4d4a-a8d0-337c6d325549</t>
+          <t>047221cb-0ee0-4944-bf61-dc27ef3e29e0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-03-12T08:27:38.952059</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-03-12T08:27:40.743786</t>
-        </is>
-      </c>
+          <t>2025-03-28T08:09:12.961127</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>36/1486</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2290b513-c1ee-4389-a605-bf7f0fbe0dd4</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-03-28T08:10:56.260490</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>36/1480</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2996d15e-a45f-4184-ae0c-5104643e897d</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-03-28T08:12:24.324813</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-03-28T08:12:41.292046</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>46/556</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96af0682-435f-447a-ba68-d585422f8071</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-03-28T08:15:30.257422</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
